--- a/src/questions.xlsx
+++ b/src/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Academics\Coding\VSCode\How2Prog\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E89B15-97AE-4224-B6F4-0E4517D2D8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504E118-06FD-4B19-B3E9-DA7D4FF40BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="708">
   <si>
     <t>Q#</t>
   </si>
@@ -1287,18 +1287,6 @@
   </si>
   <si>
     <t>Which program displays the number 5 as output?</t>
-  </si>
-  <si>
-    <t>/images/CodeSnippets/progQues/JavaScript/JS6A.png</t>
-  </si>
-  <si>
-    <t>/images/CodeSnippets/progQues/JavaScript/JS6B.png</t>
-  </si>
-  <si>
-    <t>/images/CodeSnippets/progQues/JavaScript/JS6C.png</t>
-  </si>
-  <si>
-    <t>/images/CodeSnippets/progQues/JavaScript/JS6D.png</t>
   </si>
   <si>
     <t>Supply the missing code in line 2 so that the program prints: Hello, World.</t>
@@ -2156,6 +2144,66 @@
   </si>
   <si>
     <t>What should line 1 be so that the program displays:</t>
+  </si>
+  <si>
+    <t>&gt; 117</t>
+  </si>
+  <si>
+    <t>&gt; 167</t>
+  </si>
+  <si>
+    <t>&gt; 20</t>
+  </si>
+  <si>
+    <t>&gt; -27</t>
+  </si>
+  <si>
+    <t>&gt; 35</t>
+  </si>
+  <si>
+    <t>&gt; 70</t>
+  </si>
+  <si>
+    <t>&gt; 45</t>
+  </si>
+  <si>
+    <t>&gt; 60</t>
+  </si>
+  <si>
+    <t>&gt; 729</t>
+  </si>
+  <si>
+    <t>&gt; 216</t>
+  </si>
+  <si>
+    <t>&gt; 4096</t>
+  </si>
+  <si>
+    <t>&gt; 64</t>
+  </si>
+  <si>
+    <t>&gt; 12345</t>
+  </si>
+  <si>
+    <t>&gt; 23456</t>
+  </si>
+  <si>
+    <t>&gt; 765432</t>
+  </si>
+  <si>
+    <t>&gt; 34567</t>
+  </si>
+  <si>
+    <t>/images/CodeSnippets/progQues/Python/Python6A.png</t>
+  </si>
+  <si>
+    <t>/images/CodeSnippets/progQues/Python/Python6B.png</t>
+  </si>
+  <si>
+    <t>/images/CodeSnippets/progQues/Python/Python6C.png</t>
+  </si>
+  <si>
+    <t>/images/CodeSnippets/progQues/Python/Python6D.png</t>
   </si>
 </sst>
 </file>
@@ -2524,8 +2572,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="C105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3026,19 +3074,19 @@
         <v>336</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>445</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>449</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>5</v>
@@ -3073,19 +3121,19 @@
         <v>336</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>459</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>463</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>5</v>
@@ -3117,22 +3165,22 @@
         <v>242</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>309</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>8</v>
@@ -3164,22 +3212,22 @@
         <v>242</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>6</v>
@@ -3211,19 +3259,19 @@
         <v>242</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>293</v>
@@ -3258,22 +3306,22 @@
         <v>242</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>5</v>
@@ -3305,22 +3353,22 @@
         <v>242</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>275</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>7</v>
@@ -3352,19 +3400,19 @@
         <v>242</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>325</v>
@@ -3399,22 +3447,22 @@
         <v>242</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>520</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>524</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>7</v>
@@ -3446,22 +3494,22 @@
         <v>242</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>5</v>
@@ -3493,22 +3541,22 @@
         <v>242</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>8</v>
@@ -3540,22 +3588,22 @@
         <v>242</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>275</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>6</v>
@@ -3587,22 +3635,22 @@
         <v>242</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E23" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>606</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>610</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>7</v>
@@ -3634,13 +3682,13 @@
         <v>242</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>275</v>
@@ -3649,7 +3697,7 @@
         <v>310</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>5</v>
@@ -3681,22 +3729,22 @@
         <v>242</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>6</v>
@@ -3740,7 +3788,7 @@
         <v>16</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>17</v>
@@ -3790,10 +3838,10 @@
         <v>16</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>8</v>
@@ -3933,17 +3981,17 @@
       <c r="E30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="6">
-        <v>117</v>
-      </c>
-      <c r="G30" s="6">
-        <v>167</v>
-      </c>
-      <c r="H30" s="6">
-        <v>20</v>
-      </c>
-      <c r="I30" s="6">
-        <v>-27</v>
+      <c r="F30" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>691</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>5</v>
@@ -3987,13 +4035,13 @@
         <v>32</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>7</v>
@@ -4090,10 +4138,10 @@
         <v>43</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>7</v>
@@ -4334,16 +4382,16 @@
         <v>69</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>8</v>
@@ -4384,16 +4432,16 @@
         <v>71</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>8</v>
@@ -4873,7 +4921,7 @@
         <v>13</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>123</v>
@@ -4923,17 +4971,17 @@
       <c r="E50" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F50" s="6">
-        <v>35</v>
-      </c>
-      <c r="G50" s="8">
-        <v>70</v>
-      </c>
-      <c r="H50" s="8">
-        <v>45</v>
-      </c>
-      <c r="I50" s="8">
-        <v>60</v>
+      <c r="F50" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>695</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>6</v>
@@ -4973,17 +5021,17 @@
       <c r="E51" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="8">
-        <v>729</v>
-      </c>
-      <c r="G51" s="8">
-        <v>216</v>
-      </c>
-      <c r="H51" s="8">
-        <v>4096</v>
-      </c>
-      <c r="I51" s="8">
-        <v>64</v>
+      <c r="F51" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>699</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>5</v>
@@ -5219,7 +5267,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>154</v>
@@ -5527,7 +5575,7 @@
         <v>-3</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>7</v>
@@ -5618,10 +5666,10 @@
         <v>197</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>194</v>
@@ -5815,7 +5863,7 @@
         <v>206</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>219</v>
@@ -6250,7 +6298,7 @@
         <v>243</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>285</v>
@@ -6485,19 +6533,19 @@
         <v>336</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F82" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G82" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="G82" s="15" t="s">
-        <v>469</v>
-      </c>
       <c r="H82" s="15" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>5</v>
@@ -6529,22 +6577,22 @@
         <v>242</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="I83" s="15" t="s">
         <v>471</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>5</v>
@@ -6576,13 +6624,13 @@
         <v>242</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G84" s="15" t="s">
         <v>293</v>
@@ -6591,7 +6639,7 @@
         <v>291</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>6</v>
@@ -6623,13 +6671,13 @@
         <v>242</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>291</v>
@@ -6638,7 +6686,7 @@
         <v>293</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>6</v>
@@ -6670,13 +6718,13 @@
         <v>242</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>291</v>
@@ -6685,7 +6733,7 @@
         <v>293</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>5</v>
@@ -6717,22 +6765,22 @@
         <v>242</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E87" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="I87" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="I87" s="15" t="s">
-        <v>510</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>7</v>
@@ -6764,22 +6812,22 @@
         <v>242</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E88" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="I88" s="15" t="s">
         <v>515</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="I88" s="15" t="s">
-        <v>519</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>5</v>
@@ -6811,22 +6859,22 @@
         <v>242</v>
       </c>
       <c r="D89" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="F89" s="15" t="s">
         <v>595</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>599</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>312</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="J89" s="8" t="s">
         <v>5</v>
@@ -6858,19 +6906,19 @@
         <v>242</v>
       </c>
       <c r="D90" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="H90" s="15" t="s">
         <v>595</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>599</v>
       </c>
       <c r="I90" s="15" t="s">
         <v>312</v>
@@ -6905,22 +6953,22 @@
         <v>242</v>
       </c>
       <c r="D91" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="F91" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="E91" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="F91" s="15" t="s">
+      <c r="G91" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>603</v>
-      </c>
       <c r="H91" s="15" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>6</v>
@@ -6952,22 +7000,22 @@
         <v>242</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>5</v>
@@ -6999,22 +7047,22 @@
         <v>242</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="J93" s="8" t="s">
         <v>7</v>
@@ -7046,22 +7094,22 @@
         <v>242</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>5</v>
@@ -7093,22 +7141,22 @@
         <v>242</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E95" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="I95" s="15" t="s">
         <v>630</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="I95" s="15" t="s">
-        <v>634</v>
       </c>
       <c r="J95" s="8" t="s">
         <v>5</v>
@@ -7140,22 +7188,22 @@
         <v>242</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="J96" s="8" t="s">
         <v>6</v>
@@ -7187,22 +7235,22 @@
         <v>242</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>7</v>
@@ -7390,16 +7438,16 @@
         <v>374</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>6</v>
@@ -7490,7 +7538,7 @@
         <v>382</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>383</v>
@@ -7831,17 +7879,17 @@
       <c r="E110" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F110" s="7">
-        <v>12345</v>
-      </c>
-      <c r="G110" s="7">
-        <v>23456</v>
-      </c>
-      <c r="H110" s="7">
-        <v>765432</v>
-      </c>
-      <c r="I110" s="7">
-        <v>34567</v>
+      <c r="F110" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>703</v>
       </c>
       <c r="J110" s="8" t="s">
         <v>7</v>
@@ -7882,16 +7930,16 @@
         <v>417</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>418</v>
+        <v>704</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>419</v>
+        <v>705</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>420</v>
+        <v>706</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>421</v>
+        <v>707</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>5</v>
@@ -7927,25 +7975,25 @@
         <v>186</v>
       </c>
       <c r="E112" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="I112" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="J112" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -7977,25 +8025,25 @@
         <v>186</v>
       </c>
       <c r="E113" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="I113" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -8027,16 +8075,16 @@
         <v>206</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>211</v>
@@ -8075,16 +8123,16 @@
         <v>206</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I115" s="8" t="s">
         <v>211</v>
@@ -8123,16 +8171,16 @@
         <v>206</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I116" s="8" t="s">
         <v>211</v>
@@ -8162,7 +8210,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>242</v>
@@ -8209,7 +8257,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>242</v>
@@ -8256,7 +8304,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>242</v>
@@ -8303,7 +8351,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>242</v>
@@ -8350,7 +8398,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>242</v>
@@ -8397,7 +8445,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>242</v>
@@ -8406,19 +8454,19 @@
         <v>336</v>
       </c>
       <c r="E122" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="I122" s="15" t="s">
         <v>450</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="H122" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="I122" s="15" t="s">
-        <v>454</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>5</v>
@@ -8444,7 +8492,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>242</v>
@@ -8453,19 +8501,19 @@
         <v>336</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F123" s="15" t="s">
         <v>342</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I123" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J123" s="8" t="s">
         <v>8</v>
@@ -8491,7 +8539,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>242</v>
@@ -8500,16 +8548,16 @@
         <v>336</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I124" s="15" t="s">
         <v>343</v>
@@ -8538,28 +8586,28 @@
         <v>124</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="F125" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="G125" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="I125" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="H125" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="I125" s="15" t="s">
-        <v>478</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>5</v>
@@ -8585,28 +8633,28 @@
         <v>125</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E126" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="I126" s="15" t="s">
         <v>484</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="H126" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="I126" s="15" t="s">
-        <v>488</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>7</v>
@@ -8632,28 +8680,28 @@
         <v>126</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E127" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="I127" s="15" t="s">
         <v>533</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="H127" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="I127" s="15" t="s">
-        <v>537</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>7</v>
@@ -8679,28 +8727,28 @@
         <v>127</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E128" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="I128" s="15" t="s">
         <v>538</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="H128" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="I128" s="15" t="s">
-        <v>542</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>7</v>
@@ -8726,28 +8774,28 @@
         <v>128</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I129" s="15" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>6</v>
@@ -8773,28 +8821,28 @@
         <v>129</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>6</v>
@@ -8820,28 +8868,28 @@
         <v>130</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D131" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F131" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="E131" s="15" t="s">
+      <c r="G131" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="I131" s="15" t="s">
         <v>625</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="H131" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="I131" s="15" t="s">
-        <v>629</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>8</v>
@@ -8867,28 +8915,28 @@
         <v>131</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E132" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="I132" s="15" t="s">
         <v>639</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="H132" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="I132" s="15" t="s">
-        <v>643</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>6</v>
@@ -8914,28 +8962,28 @@
         <v>132</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I133" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>7</v>
@@ -8961,28 +9009,28 @@
         <v>133</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>8</v>
@@ -9008,28 +9056,28 @@
         <v>134</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>7</v>
@@ -9055,28 +9103,28 @@
         <v>135</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E136" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="I136" s="15" t="s">
         <v>650</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="I136" s="15" t="s">
-        <v>654</v>
       </c>
       <c r="J136" s="8" t="s">
         <v>5</v>
@@ -9102,7 +9150,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>12</v>
@@ -9111,19 +9159,19 @@
         <v>7</v>
       </c>
       <c r="E137" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I137" s="10" t="s">
         <v>547</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="I137" s="10" t="s">
-        <v>551</v>
       </c>
       <c r="J137" s="8" t="s">
         <v>7</v>
@@ -9150,7 +9198,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>12</v>
@@ -9159,19 +9207,19 @@
         <v>7</v>
       </c>
       <c r="E138" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>5</v>
@@ -9198,7 +9246,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>12</v>
@@ -9207,25 +9255,25 @@
         <v>7</v>
       </c>
       <c r="E139" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I139" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
@@ -9248,7 +9296,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>12</v>
@@ -9257,19 +9305,19 @@
         <v>186</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>6</v>
@@ -9295,7 +9343,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>12</v>
@@ -9304,19 +9352,19 @@
         <v>186</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>7</v>
@@ -9342,7 +9390,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>12</v>
@@ -9351,19 +9399,19 @@
         <v>186</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J142" s="8" t="s">
         <v>8</v>
@@ -9389,7 +9437,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>12</v>
@@ -9398,19 +9446,19 @@
         <v>186</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J143" s="8" t="s">
         <v>5</v>
@@ -9436,7 +9484,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>12</v>
@@ -9445,25 +9493,25 @@
         <v>186</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J144" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -9485,7 +9533,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>12</v>
@@ -9494,25 +9542,25 @@
         <v>186</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -9534,7 +9582,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>12</v>
@@ -9543,25 +9591,25 @@
         <v>206</v>
       </c>
       <c r="E146" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="I146" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="J146" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -32637,7 +32685,7 @@
       <c r="Y1000" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B163 B152 B174 B185 B196 B207 B218">
+  <conditionalFormatting sqref="B152 B163 B174 B185 B196 B207 B218">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
